--- a/adaboost.xlsx
+++ b/adaboost.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaskuttyreji/Documents/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaskuttyreji/Documents/GitHub/Notes-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F2EBC-EB37-1644-A26A-099B35D1819B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D530C8-A163-444E-9439-028762B7719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="17500" xr2:uid="{60DBC0E8-8D6B-EF4E-86EF-026C11939742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -253,33 +253,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -297,7 +291,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -311,6 +305,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -339,8 +336,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5194300" cy="825500"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -384,6 +381,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -596,7 +594,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -690,8 +688,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4241800" cy="825500"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -735,6 +733,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -914,7 +913,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1303,7 +1302,7 @@
   <dimension ref="B1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1324,649 +1323,649 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="5" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2">
-        <f>1/COUNT(E$6:E$15)</f>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G15" si="0">1/COUNT(E$6:E$15)</f>
         <v>0.1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <f>G6*EXP(C18)</f>
         <v>0.12020018709556624</v>
       </c>
-      <c r="I6" s="6">
-        <f>H6/SUM(H$6:H$15)</f>
+      <c r="I6" s="4">
+        <f t="shared" ref="I6:I15" si="1">H6/SUM(H$6:H$15)</f>
         <v>0.12747081875737937</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <f>I6</f>
         <v>0.12747081875737937</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="8">
         <v>0</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <v>0.29195317090697681</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="2">
-        <f>1/COUNT(E$6:E$15)</f>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <f>G7*EXP(-C18)</f>
         <v>8.319454604550168E-2</v>
       </c>
-      <c r="I7" s="6">
-        <f>H7/SUM(H$6:H$15)</f>
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
         <v>8.8226791961123111E-2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f>I7+J6</f>
         <v>0.21569761071850246</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f>J6</f>
         <v>0.12747081875737937</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <v>0.61339531749287424</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="2">
-        <f>1/COUNT(E$6:E$15)</f>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <f>G8*EXP(-C18)</f>
         <v>8.319454604550168E-2</v>
       </c>
-      <c r="I8" s="6">
-        <f>H8/SUM(H$6:H$15)</f>
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
         <v>8.8226791961123111E-2</v>
       </c>
-      <c r="J8" s="4">
-        <f t="shared" ref="J8:J15" si="0">I8+J7</f>
+      <c r="J8" s="3">
+        <f t="shared" ref="J8:J15" si="2">I8+J7</f>
         <v>0.30392440267962556</v>
       </c>
-      <c r="K8" s="4">
-        <f t="shared" ref="K8:K15" si="1">J7</f>
+      <c r="K8" s="3">
+        <f t="shared" ref="K8:K15" si="3">J7</f>
         <v>0.21569761071850246</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <v>0.8406231968917045</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="2">
-        <f>1/COUNT(E$6:E$15)</f>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <f>G9*EXP(C18)</f>
         <v>0.12020018709556624</v>
       </c>
-      <c r="I9" s="6">
-        <f>H9/SUM(H$6:H$15)</f>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
         <v>0.12747081875737937</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.43139522143700493</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="3"/>
+        <v>0.30392440267962556</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.23819208636169464</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>0.43139522143700493</v>
-      </c>
-      <c r="K9" s="9">
-        <f t="shared" si="1"/>
-        <v>0.30392440267962556</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0.23819208636169464</v>
-      </c>
-      <c r="M9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <f>1/COUNT(E$6:E$15)</f>
         <v>0.1</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <f>G10*EXP(-C18)</f>
         <v>8.319454604550168E-2</v>
       </c>
-      <c r="I10" s="6">
-        <f>H10/SUM(H$6:H$15)</f>
+      <c r="I10" s="4">
+        <f t="shared" si="1"/>
         <v>8.8226791961123111E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.51962201339812808</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.43139522143700493</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.81963059810279115</v>
+      </c>
+      <c r="M10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>0.51962201339812808</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.43139522143700493</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0.81963059810279115</v>
-      </c>
-      <c r="M10" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <f>1/COUNT(E$6:E$15)</f>
         <v>0.1</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <f>G11*EXP(-C18)</f>
         <v>8.319454604550168E-2</v>
       </c>
-      <c r="I11" s="6">
-        <f>H11/SUM(H$6:H$15)</f>
+      <c r="I11" s="4">
+        <f t="shared" si="1"/>
         <v>8.8226791961123111E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.60784880535925123</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.51962201339812808</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.59664906616489688</v>
+      </c>
+      <c r="M11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>0.60784880535925123</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>0.51962201339812808</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0.59664906616489688</v>
-      </c>
-      <c r="M11" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <f>1/COUNT(E$6:E$15)</f>
         <v>0.1</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <f>G12*EXP(-C18)</f>
         <v>8.319454604550168E-2</v>
       </c>
-      <c r="I12" s="6">
-        <f>H12/SUM(H$6:H$15)</f>
+      <c r="I12" s="4">
+        <f t="shared" si="1"/>
         <v>8.8226791961123111E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.69607559732037438</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.60784880535925123</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.61022327615237526</v>
+      </c>
+      <c r="M12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>0.69607559732037438</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.60784880535925123</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0.61022327615237526</v>
-      </c>
-      <c r="M12" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <f>1/COUNT(E$6:E$15)</f>
         <v>0.1</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <f>G13*EXP(C18)</f>
         <v>0.12020018709556624</v>
       </c>
-      <c r="I13" s="6">
-        <f>H13/SUM(H$6:H$15)</f>
+      <c r="I13" s="4">
+        <f t="shared" si="1"/>
         <v>0.12747081875737937</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.8235464160777537</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="3"/>
+        <v>0.69607559732037438</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.38890099862576843</v>
+      </c>
+      <c r="M13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>0.8235464160777537</v>
-      </c>
-      <c r="K13" s="9">
-        <f t="shared" si="1"/>
-        <v>0.69607559732037438</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0.38890099862576843</v>
-      </c>
-      <c r="M13" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <f>1/COUNT(E$6:E$15)</f>
         <v>0.1</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <f>G14*EXP(-C18)</f>
         <v>8.319454604550168E-2</v>
       </c>
-      <c r="I14" s="6">
-        <f>H14/SUM(H$6:H$15)</f>
+      <c r="I14" s="4">
+        <f t="shared" si="1"/>
         <v>8.8226791961123111E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91177320803887685</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.8235464160777537</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.66596171904900769</v>
+      </c>
+      <c r="M14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>0.91177320803887685</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0.8235464160777537</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0.66596171904900769</v>
-      </c>
-      <c r="M14" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <f>1/COUNT(E$6:E$15)</f>
         <v>0.1</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <f>G15*EXP(-C18)</f>
         <v>8.319454604550168E-2</v>
       </c>
-      <c r="I15" s="6">
-        <f>H15/SUM(H$6:H$15)</f>
+      <c r="I15" s="4">
+        <f t="shared" si="1"/>
         <v>8.8226791961123111E-2</v>
       </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
+      <c r="J15" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
+      <c r="K15" s="3">
+        <f t="shared" si="3"/>
         <v>0.91177320803887685</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="6">
         <v>0.73935032787680544</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f>G6+G9+G13</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f>0.5*LOG10((1-C17)/C17)</f>
         <v>0.18398839264729716</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1975,6 +1974,7 @@
     <mergeCell ref="B28:J32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>